--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4475CC56-E626-4786-A664-28BCBDBF7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2700014C-BC7A-455F-A66D-02154CDF1827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="5220" windowWidth="19440" windowHeight="6420" tabRatio="809" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>cs</t>
   </si>
@@ -98,7 +98,23 @@
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSF_AI_Attack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSF_AI_XunLuo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -135,19 +151,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -190,7 +206,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -614,7 +630,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -746,24 +762,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6806580A-C2E2-464D-838F-14BAF6704D55}">
-  <dimension ref="C2:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F314989-0A4E-43A8-AFFD-08C1798D67AC}">
+  <dimension ref="C2:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.25">
@@ -843,15 +861,37 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="3:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C7" s="2">
+        <f>D7*100+E7</f>
+        <v>302</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/AIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-OWDemo-1\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2700014C-BC7A-455F-A66D-02154CDF1827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBF0F60-9689-472B-A3E2-4110BE5EB58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="5220" windowWidth="19440" windowHeight="6420" tabRatio="809" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="809" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -772,7 +772,7 @@
   <dimension ref="C2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -887,8 +887,8 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="1"/>
+    <row r="8" spans="3:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
